--- a/Data/Log/TotallingBuckUp.xlsx
+++ b/Data/Log/TotallingBuckUp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64E2FA-9D4A-4B70-AA94-91195BABCE22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBC282-1EB0-454F-B63B-5C748A31F35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -640,13 +640,13 @@
         <f>SUM(Data!J$2:J$1000)</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="e">
         <f>N2 / M2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2">
-        <f>COUNTA(Data!#REF!)</f>
-        <v>1</v>
+        <f>COUNTA(Data!$A$1:$A$1000)</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <f>COUNTIF(Data!$A$1:$A$1000,N5)</f>
